--- a/SEQUENCE BUILDER_168samples-2plates_V3.xlsx
+++ b/SEQUENCE BUILDER_168samples-2plates_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lifescience09\Analytical Chemistry\Analytical Chemistry Results Data\ZZ_LCMS_Form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\Documents\GitHub\xlsx-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED557C77-E63E-45F1-B9E1-F4CA3ED205FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8BC925-7435-4689-B609-40D56D9AD226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence" sheetId="2" r:id="rId1"/>
@@ -805,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,14 +1033,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,11 +1364,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -1381,7 +1381,7 @@
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="str">
         <f>I2</f>
         <v>230207_Solvent</v>
@@ -1414,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>$I$5&amp;" Inj "&amp;J2</f>
         <v>230207_Cal 1 Inj 1</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="str">
         <f>$I$5&amp;" Inj "&amp;J3</f>
         <v>230207_Cal 1 Inj 2</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str">
         <f>$I$11&amp;" Inj "&amp;J4</f>
         <v>230207_Cal 7 Inj 1</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="str">
         <f t="shared" ref="A5:A9" si="0">$I$11&amp;" Inj "&amp;J5</f>
         <v>230207_Cal 7 Inj 2</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>230207_Cal 7 Inj 3</v>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>230207_Cal 7 Inj 4</v>
@@ -1603,10 +1603,10 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>230207_Cal 7 Inj 5</v>
@@ -1635,10 +1635,10 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>230207_Cal 7 Inj 6</v>
@@ -1667,10 +1667,10 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="str">
         <f>I2</f>
         <v>230207_Solvent</v>
@@ -1697,10 +1697,10 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="str">
         <f t="shared" ref="A11:A21" si="1">I2</f>
         <v>230207_Solvent</v>
@@ -1730,7 +1730,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_DBlank</v>
@@ -1760,7 +1760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Blank</v>
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 1</v>
@@ -1825,7 +1825,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 2</v>
@@ -1858,7 +1858,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 3</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -1885,7 +1885,7 @@
         <v>230207_QCL R4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 4</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -1912,7 +1912,7 @@
         <v>230207_QCM R1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 5</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -1939,7 +1939,7 @@
         <v>230207_QCM R2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 6</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -1966,7 +1966,7 @@
         <v>230207_QCM R3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 7</v>
@@ -1993,7 +1993,7 @@
         <v>230207_QCM R4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>230207_Cal 8</v>
@@ -2020,7 +2020,7 @@
         <v>230207_QCH R1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="str">
         <f>I2</f>
         <v>230207_Solvent</v>
@@ -2047,7 +2047,7 @@
         <v>230207_QCH R2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>I13</f>
         <v>230207_QCL R1</v>
@@ -2074,7 +2074,7 @@
         <v>230207_QCH R3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f t="shared" ref="A24:A38" si="3">I30</f>
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>230207_QCH R4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2122,7 +2122,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>230207</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>test\230207\230207-001</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2195,7 +2195,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f>I17</f>
         <v>230207_QCM R1</v>
@@ -2511,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f t="shared" ref="A40:A54" si="4">I45</f>
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f>I21</f>
         <v>230207_QCH R1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <f t="shared" ref="A56:A68" si="5">I60</f>
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f>I14</f>
         <v>230207_QCL R2</v>
@@ -3280,7 +3280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <f t="shared" ref="A70:A86" si="6">I73</f>
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f>I18</f>
         <v>230207_QCM R2</v>
@@ -3736,7 +3736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <f t="shared" ref="A88:A105" si="7">I90</f>
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
         <f>I22</f>
         <v>230207_QCH R2</v>
@@ -4229,7 +4229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" thickBot="1">
+    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="str">
         <f>I2</f>
         <v>230207_Solvent</v>
@@ -4256,7 +4256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
         <f>I15</f>
         <v>230207_QCL R3</v>
@@ -4286,7 +4286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" ref="A109:A122" si="8">I108</f>
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="str">
         <f>I19</f>
         <v>230207_QCM R3</v>
@@ -4665,7 +4665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" ref="A124:A142" si="9">I122</f>
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="str">
         <f>I23</f>
         <v>230207_QCH R3</v>
@@ -5183,7 +5183,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <f t="shared" ref="A144:A161" si="10">I141</f>
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5611,7 +5611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="str">
         <f>I16</f>
         <v>230207_QCL R4</v>
@@ -5664,7 +5664,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <f t="shared" ref="A163:A182" si="11">I159</f>
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="str">
         <f>I20</f>
         <v>230207_QCM R4</v>
@@ -6206,7 +6206,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <f t="shared" ref="A184:A202" si="12">I179</f>
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6307,7 +6307,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6457,7 +6457,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6507,7 +6507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="str">
         <f>I24</f>
         <v>230207_QCH R4</v>
@@ -6673,7 +6673,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="str">
         <f>I2</f>
         <v>230207_Solvent</v>
@@ -6709,11 +6709,11 @@
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="14" style="8" customWidth="1"/>
@@ -6723,7 +6723,7 @@
     <col min="28" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1">
+    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5">
         <v>1</v>
@@ -6799,8 +6799,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="7">
@@ -6839,7 +6839,7 @@
       <c r="M2" s="7">
         <v>12</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="7">
@@ -6879,8 +6879,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
       <c r="B3" s="9" t="str">
         <f>IF(Sequence!I2&lt;&gt;"",Sequence!I2,"")</f>
         <v>230207_Solvent</v>
@@ -6929,7 +6929,7 @@
         <f>B3</f>
         <v>230207_Solvent</v>
       </c>
-      <c r="O3" s="25"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="9" t="str">
         <f>IF(Sequence!I15&lt;&gt;"",Sequence!I15,"")</f>
         <v>230207_QCL R3</v>
@@ -6979,8 +6979,8 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="7">
@@ -7019,7 +7019,7 @@
       <c r="M4" s="7">
         <v>24</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="P4" s="7">
@@ -7059,8 +7059,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="9" t="str">
         <f>IF(Sequence!I13&lt;&gt;"",Sequence!I13,"")</f>
         <v>230207_QCL R1</v>
@@ -7109,7 +7109,7 @@
         <f>IF(Sequence!I35&lt;&gt;"",Sequence!I35,"")</f>
         <v/>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="9" t="str">
         <f>IF(Sequence!I114&lt;&gt;"",Sequence!I114,"")</f>
         <v/>
@@ -7159,8 +7159,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="7">
@@ -7199,7 +7199,7 @@
       <c r="M6" s="7">
         <v>36</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="7">
@@ -7239,8 +7239,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="9" t="str">
         <f>IF(Sequence!I36&lt;&gt;"",Sequence!I36,"")</f>
         <v/>
@@ -7289,7 +7289,7 @@
         <f>IF(Sequence!I47&lt;&gt;"",Sequence!I47,"")</f>
         <v/>
       </c>
-      <c r="O7" s="25"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="9" t="str">
         <f>IF(Sequence!I126&lt;&gt;"",Sequence!I126,"")</f>
         <v/>
@@ -7339,8 +7339,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7">
@@ -7379,7 +7379,7 @@
       <c r="M8" s="7">
         <v>48</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="7">
@@ -7419,8 +7419,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="9" t="str">
         <f>IF(Sequence!I48&lt;&gt;"",Sequence!I48,"")</f>
         <v/>
@@ -7469,7 +7469,7 @@
         <f>IF(Sequence!I59&lt;&gt;"",Sequence!I59,"")</f>
         <v/>
       </c>
-      <c r="O9" s="25"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="9" t="str">
         <f>IF(Sequence!I138&lt;&gt;"",Sequence!I138,"")</f>
         <v/>
@@ -7519,8 +7519,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="7">
@@ -7559,7 +7559,7 @@
       <c r="M10" s="7">
         <v>60</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="P10" s="7">
@@ -7599,8 +7599,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="9" t="str">
         <f>IF(Sequence!I60&lt;&gt;"",Sequence!I60,"")</f>
         <v/>
@@ -7649,7 +7649,7 @@
         <f>IF(Sequence!I71&lt;&gt;"",Sequence!I71,"")</f>
         <v/>
       </c>
-      <c r="O11" s="25"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="9" t="str">
         <f>IF(Sequence!I150&lt;&gt;"",Sequence!I150,"")</f>
         <v/>
@@ -7699,8 +7699,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7">
@@ -7739,7 +7739,7 @@
       <c r="M12" s="7">
         <v>72</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="7">
@@ -7779,8 +7779,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="9" t="str">
         <f>IF(Sequence!I72&lt;&gt;"",Sequence!I72,"")</f>
         <v/>
@@ -7829,7 +7829,7 @@
         <f>IF(Sequence!I83&lt;&gt;"",Sequence!I83,"")</f>
         <v/>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="9" t="str">
         <f>IF(Sequence!I162&lt;&gt;"",Sequence!I162,"")</f>
         <v/>
@@ -7879,8 +7879,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="7">
@@ -7919,7 +7919,7 @@
       <c r="M14" s="7">
         <v>84</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="23" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="7">
@@ -7959,8 +7959,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
       <c r="B15" s="9" t="str">
         <f>IF(Sequence!I84&lt;&gt;"",Sequence!I84,"")</f>
         <v/>
@@ -8009,7 +8009,7 @@
         <f>IF(Sequence!I95&lt;&gt;"",Sequence!I95,"")</f>
         <v/>
       </c>
-      <c r="O15" s="25"/>
+      <c r="O15" s="24"/>
       <c r="P15" s="9" t="str">
         <f>IF(Sequence!I174&lt;&gt;"",Sequence!I174,"")</f>
         <v/>
@@ -8059,8 +8059,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="7">
@@ -8099,7 +8099,7 @@
       <c r="M16" s="7">
         <v>96</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="P16" s="7">
@@ -8139,8 +8139,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:27" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="9" t="str">
         <f>IF(Sequence!I96&lt;&gt;"",Sequence!I96,"")</f>
         <v/>
@@ -8189,7 +8189,7 @@
         <f>IF(Sequence!I107&lt;&gt;"",Sequence!I107,"")</f>
         <v/>
       </c>
-      <c r="O17" s="25"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="9" t="str">
         <f>IF(Sequence!I186&lt;&gt;"",Sequence!I186,"")</f>
         <v/>
@@ -8239,123 +8239,123 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:27">
-      <c r="E19" s="23" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E19:Z22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="O12:O13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="E19:Z22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="O16:O17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8373,9 +8373,9 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-001"</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-002"</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-003"</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-004"</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-005"</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-006"</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-007"</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-008"</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-009"</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-010"</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-011"</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-012"</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-013"</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-014"</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-015"</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-016"</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-017"</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-018"</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-019"</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-020"</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-021"</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-022"</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-023"</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-024"</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-025"</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-026"</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-027"</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-028"</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-029"</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-030"</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-031"</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-032"</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-033"</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-034"</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-035"</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-036"</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-037"</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-038"</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-039"</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-040"</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-041"</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-042"</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-043"</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-044"</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-045"</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-046"</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-047"</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-048"</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-049"</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-050"</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-051"</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-052"</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-053"</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-054"</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-055"</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-056"</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-057"</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-058"</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-059"</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-060"</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-061"</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-062"</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-063"</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-064"</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-065"</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-066"</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-067"</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-068"</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-069"</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-070"</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-071"</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-072"</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-073"</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-074"</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-075"</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-076"</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-077"</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-078"</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-079"</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-080"</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-081"</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-082"</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-083"</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-084"</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-085"</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-086"</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-087"</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-088"</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-089"</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-090"</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-091"</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-092"</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-093"</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-094"</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-095"</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-096"</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-097"</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-098"</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-099"</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-100"</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-101"</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-102"</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-103"</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-104"</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-105"</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-106"</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-107"</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-108"</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>135</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-109"</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-110"</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>137</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-111"</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-112"</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>139</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-113"</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-114"</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-115"</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>142</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-116"</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-117"</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-118"</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>145</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-119"</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>146</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-120"</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-121"</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>148</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-122"</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-123"</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>150</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-124"</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-125"</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-126"</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>153</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-127"</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>154</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-128"</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-129"</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-130"</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>157</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-131"</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>158</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-132"</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>159</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-133"</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>160</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-134"</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>161</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-135"</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>162</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-136"</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-137"</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>164</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-138"</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>165</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-139"</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>166</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-140"</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-141"</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-142"</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-143"</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>170</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-144"</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>171</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-145"</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-146"</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-147"</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-148"</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>175</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-149"</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>176</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-150"</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-151"</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-152"</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>179</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-153"</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-154"</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-155"</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>182</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-156"</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>183</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-157"</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-158"</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>185</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-159"</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-160"</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>187</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-161"</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>188</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-162"</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>189</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-163"</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>190</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-164"</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>191</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-165"</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-166"</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>193</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-167"</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>194</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-168"</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>195</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-169"</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>196</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-170"</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-171"</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-172"</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-173"</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-174"</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-175"</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-176"</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-177"</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-178"</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-179"</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>206</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-180"</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-181"</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>208</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-182"</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-183"</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-184"</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-185"</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>212</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-186"</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-187"</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-188"</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-189"</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-190"</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-191"</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-192"</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-193"</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-194"</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-195"</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>222</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-196"</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>223</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-197"</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-198"</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-199"</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-200"</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-201"</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-202"</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-203"</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-204"</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-205"</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>=$I$26&amp;"\Samples\"&amp;$I$26&amp;"-206"</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -10248,22 +10248,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="84.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>235</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" cm="1">
         <f t="array" ref="A3:A8">_xlfn.SEQUENCE(COUNTA(B3:B22))</f>
         <v>1</v>
@@ -10286,7 +10286,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10341,31 +10341,31 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
     </row>
   </sheetData>
